--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad/PycharmProjects/ylab/YLab_Python/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B76114-D481-D44E-B25A-17B3170FFCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1D61E6-E993-8344-9CD6-D3E6B0456FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,12 @@
     <t>К пиву</t>
   </si>
   <si>
+    <t>Сельдь Бисмарк</t>
+  </si>
+  <si>
+    <t>Традиционное немецкое блюдо из маринованной сельди</t>
+  </si>
+  <si>
     <t>Мясная тарелка</t>
   </si>
   <si>
@@ -127,12 +133,6 @@
   </si>
   <si>
     <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
-  </si>
-  <si>
-    <t>Пошел ты нахуй сука блят</t>
-  </si>
-  <si>
-    <t>Залупа</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4">
         <v>182.99</v>
@@ -494,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4">
         <v>215.36</v>
@@ -510,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4">
         <v>265.57</v>
@@ -525,10 +525,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="2"/>
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
         <v>166.47</v>
@@ -556,10 +556,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>168.25</v>
@@ -572,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
         <v>132.88</v>
@@ -586,10 +586,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="2"/>
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1">
         <v>2700.79</v>
@@ -632,10 +632,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>3100.33</v>
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>1850.42</v>
@@ -663,10 +663,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
@@ -678,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1">
         <v>420.78</v>
@@ -694,10 +694,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1">
         <v>440.11</v>
@@ -710,13 +710,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1">
-        <v>999.08</v>
+        <v>520.08000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
